--- a/workbook/workbook.xlsx
+++ b/workbook/workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="47">
   <si>
     <t>Monday</t>
   </si>
@@ -76,10 +76,16 @@
     <t>X</t>
   </si>
   <si>
+    <t>S5</t>
+  </si>
+  <si>
     <t>BD</t>
   </si>
   <si>
     <t>BS</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
   <si>
     <t>OM</t>
@@ -118,13 +124,7 @@
     <t>S2</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
   </si>
   <si>
     <t>S6</t>
@@ -306,13 +306,14 @@
   </sheetPr>
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK15" activeCellId="0" sqref="AK15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ12" activeCellId="0" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +542,9 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4" t="s">
@@ -563,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -600,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -610,7 +613,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -641,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -682,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1471,12 +1476,13 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topLeft" activeCell="AG19" activeCellId="0" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1684,9 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1709,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1744,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1779,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1814,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2565,6 +2573,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2832,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2867,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2902,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3653,6 +3662,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3920,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3955,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3990,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4741,6 +4751,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4973,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5008,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5043,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5078,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5829,6 +5840,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6096,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6131,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6166,7 +6178,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6917,6 +6929,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7184,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -7219,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7254,7 +7267,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8005,6 +8018,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,7 +8251,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8272,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8307,7 +8321,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8342,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9093,6 +9107,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9325,7 +9340,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9360,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -9395,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9430,7 +9445,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -10181,6 +10196,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10448,7 +10464,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10483,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10518,7 +10534,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11269,6 +11285,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,7 +11518,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -11536,7 +11553,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -11571,7 +11588,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11606,7 +11623,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12357,6 +12374,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12589,7 +12607,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -12624,7 +12642,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12659,7 +12677,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12694,7 +12712,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -13445,6 +13463,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13677,7 +13696,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -13712,7 +13731,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -13747,7 +13766,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -13782,7 +13801,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -14531,31 +14550,34 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -14576,64 +14598,64 @@
   </sheetPr>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA7" activeCellId="0" sqref="AA7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6"/>
       <c r="Y1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="Y2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -14817,12 +14839,13 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15059,7 +15082,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -15094,7 +15117,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -15129,7 +15152,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -15168,7 +15191,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -15923,6 +15946,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16155,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -16190,7 +16214,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -16225,7 +16249,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -16260,7 +16284,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -17011,6 +17035,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17243,7 +17268,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -17278,7 +17303,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -17313,7 +17338,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -17348,7 +17373,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -18099,6 +18124,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18331,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -18366,7 +18392,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -18401,7 +18427,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -18436,7 +18462,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -19187,6 +19213,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19407,7 +19434,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -19442,7 +19469,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -19477,7 +19504,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -19512,7 +19539,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -20262,6 +20289,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20494,7 +20522,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -20529,7 +20557,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -20564,7 +20592,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -20599,7 +20627,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -21350,6 +21378,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21677,7 +21706,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -21712,7 +21741,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -21747,7 +21776,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -21782,7 +21811,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>

--- a/workbook/workbook.xlsx
+++ b/workbook/workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -97,9 +97,6 @@
     <t>I.D.</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
     <t>Period 1</t>
   </si>
   <si>
@@ -115,73 +112,46 @@
     <t>Period 4</t>
   </si>
   <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
     <t>Supply Teachers</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>S2</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>EF</t>
   </si>
   <si>
     <t>S4</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>S24</t>
+    <t>GH</t>
   </si>
 </sst>
 </file>
@@ -306,14 +276,13 @@
   </sheetPr>
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ12" activeCellId="0" sqref="AJ12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1451,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +2541,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3629,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,7 +4717,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5805,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6893,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,7 +7981,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9107,7 +9069,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10196,7 +10157,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,7 +11245,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12368,13 +12327,12 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13463,7 +13421,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14543,18 +14500,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>17</v>
       </c>
@@ -14576,8 +14537,97 @@
       <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -14596,15 +14646,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14612,214 +14662,62 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1" s="6"/>
       <c r="Y1" s="0" t="s">
         <v>17</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="Y2" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14839,13 +14737,12 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15946,7 +15843,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17035,7 +16931,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18124,7 +18019,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19213,7 +19107,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20289,7 +20182,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21378,7 +21270,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/workbook/workbook.xlsx
+++ b/workbook/workbook.xlsx
@@ -2,36 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Week 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Week 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Week 4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Week 5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Week 6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Week 7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Week 8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Week 9" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Week 10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Week 11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Week 12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Week 13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Week 14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Week 15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Week 16" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Week 17" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Week 18" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Week 19" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Week 20" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Schedule" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Supply" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Week 1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Week 2" r:id="rId3" sheetId="2" state="visible"/>
+    <sheet name="Week 3" r:id="rId4" sheetId="3" state="visible"/>
+    <sheet name="Week 4" r:id="rId5" sheetId="4" state="visible"/>
+    <sheet name="Week 5" r:id="rId6" sheetId="5" state="visible"/>
+    <sheet name="Week 6" r:id="rId7" sheetId="6" state="visible"/>
+    <sheet name="Week 7" r:id="rId8" sheetId="7" state="visible"/>
+    <sheet name="Week 8" r:id="rId9" sheetId="8" state="visible"/>
+    <sheet name="Week 9" r:id="rId10" sheetId="9" state="visible"/>
+    <sheet name="Week 10" r:id="rId11" sheetId="10" state="visible"/>
+    <sheet name="Week 11" r:id="rId12" sheetId="11" state="visible"/>
+    <sheet name="Week 12" r:id="rId13" sheetId="12" state="visible"/>
+    <sheet name="Week 13" r:id="rId14" sheetId="13" state="visible"/>
+    <sheet name="Week 14" r:id="rId15" sheetId="14" state="visible"/>
+    <sheet name="Week 15" r:id="rId16" sheetId="15" state="visible"/>
+    <sheet name="Week 16" r:id="rId17" sheetId="16" state="visible"/>
+    <sheet name="Week 17" r:id="rId18" sheetId="17" state="visible"/>
+    <sheet name="Week 18" r:id="rId19" sheetId="18" state="visible"/>
+    <sheet name="Week 19" r:id="rId20" sheetId="19" state="visible"/>
+    <sheet name="Week 20" r:id="rId21" sheetId="20" state="visible"/>
+    <sheet name="Schedule" r:id="rId22" sheetId="21" state="visible"/>
+    <sheet name="Supply" r:id="rId23" sheetId="22" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="39">
   <si>
     <t>Monday</t>
   </si>
@@ -94,10 +94,10 @@
     <t>DM</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>S2</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>S1</t>
   </si>
   <si>
     <t>I.D.</t>
@@ -201,7 +201,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -210,67 +210,67 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -280,19 +280,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="R8" activeCellId="0" pane="topLeft" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -327,7 +327,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -370,7 +370,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -405,7 +405,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -490,7 +490,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -1434,9 +1434,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1449,19 +1449,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG19" activeCellId="0" sqref="AG19"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AG19" activeCellId="0" pane="topLeft" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1535,7 +1535,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -2525,9 +2525,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2540,19 +2540,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2626,7 +2626,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2659,7 +2659,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -3614,9 +3614,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3629,19 +3629,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3674,7 +3674,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3715,7 +3715,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3748,7 +3748,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -4703,9 +4703,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4718,19 +4718,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4763,7 +4763,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4804,7 +4804,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4837,7 +4837,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -5792,9 +5792,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5807,19 +5807,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG31" activeCellId="0" sqref="AG31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AG31" activeCellId="0" pane="topLeft" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5852,7 +5852,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5893,7 +5893,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5926,7 +5926,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -6881,9 +6881,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6896,19 +6896,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK30" activeCellId="0" sqref="AK30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AK30" activeCellId="0" pane="topLeft" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6941,7 +6941,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6982,7 +6982,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7015,7 +7015,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -7970,9 +7970,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7985,19 +7985,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8030,7 +8030,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8071,7 +8071,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8104,7 +8104,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -8327,7 +8327,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -8560,7 +8560,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -8758,7 +8758,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -8857,7 +8857,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -9059,9 +9059,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9074,19 +9074,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9119,7 +9119,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9160,7 +9160,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9193,7 +9193,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -9381,7 +9381,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -9583,7 +9583,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -10148,9 +10148,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10163,19 +10163,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10208,7 +10208,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10249,7 +10249,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10282,7 +10282,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -10400,7 +10400,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -10573,7 +10573,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -10639,7 +10639,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -10705,7 +10705,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -10771,7 +10771,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -10837,7 +10837,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -10903,7 +10903,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -10936,7 +10936,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -10969,7 +10969,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -11002,7 +11002,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -11035,7 +11035,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -11101,7 +11101,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -11134,7 +11134,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -11237,9 +11237,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11252,19 +11252,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11297,7 +11297,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11338,7 +11338,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11371,7 +11371,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -11524,7 +11524,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -11594,7 +11594,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -11629,7 +11629,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -11761,7 +11761,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -11794,7 +11794,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -11860,7 +11860,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -11893,7 +11893,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -11959,7 +11959,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -11992,7 +11992,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -12025,7 +12025,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -12058,7 +12058,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -12091,7 +12091,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -12157,7 +12157,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -12223,7 +12223,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -12256,7 +12256,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -12326,9 +12326,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12341,19 +12341,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AC9" activeCellId="0" pane="topLeft" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12386,7 +12386,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12427,7 +12427,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12460,7 +12460,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -12553,15 +12553,17 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+      <c r="F5" s="4" t="n">
+        <v>5.0</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -12580,7 +12582,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -12595,9 +12597,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -12607,7 +12607,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -12619,7 +12619,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -12639,9 +12639,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -12656,7 +12654,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -12672,10 +12670,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -12695,7 +12693,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -12730,7 +12728,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -12763,7 +12761,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -12796,7 +12794,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -12829,7 +12827,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -12862,7 +12860,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -12895,7 +12893,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -12928,7 +12926,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -12961,7 +12959,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -12994,7 +12992,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -13027,7 +13025,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -13060,7 +13058,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -13093,7 +13091,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -13126,7 +13124,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -13159,7 +13157,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -13192,7 +13190,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -13225,7 +13223,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -13258,7 +13256,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -13291,7 +13289,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -13324,7 +13322,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -13357,7 +13355,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -13427,9 +13425,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13442,19 +13440,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13487,7 +13485,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -13528,7 +13526,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13561,7 +13559,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -13644,7 +13642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -13679,7 +13677,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -13714,7 +13712,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -13749,7 +13747,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -13784,7 +13782,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -13819,7 +13817,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -13852,7 +13850,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -13885,7 +13883,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -13918,7 +13916,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -13951,7 +13949,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -13984,7 +13982,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -14017,7 +14015,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -14050,7 +14048,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -14083,7 +14081,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -14116,7 +14114,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -14149,7 +14147,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -14182,7 +14180,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -14215,7 +14213,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -14248,7 +14246,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -14281,7 +14279,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -14314,7 +14312,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -14347,7 +14345,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -14380,7 +14378,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -14413,7 +14411,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -14446,7 +14444,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -14516,9 +14514,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14531,24 +14529,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col min="1" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>19</v>
       </c>
@@ -14571,7 +14569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -14594,7 +14592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -14617,7 +14615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -14640,7 +14638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -14663,7 +14661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -14687,9 +14685,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14702,18 +14700,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
+    <col min="1" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>19</v>
       </c>
@@ -14728,28 +14726,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="Y2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
@@ -14758,7 +14756,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>36</v>
       </c>
@@ -14767,7 +14765,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -14783,9 +14781,9 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14798,19 +14796,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="S18" activeCellId="0" pane="topLeft" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14843,7 +14841,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -14884,7 +14882,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -14917,7 +14915,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -15000,7 +14998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -15012,14 +15010,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -15039,7 +15033,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -15074,7 +15068,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -15109,7 +15103,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -15125,17 +15119,13 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -15148,7 +15138,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -15183,7 +15173,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -15216,7 +15206,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -15249,7 +15239,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -15274,9 +15264,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -15284,7 +15272,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -15317,7 +15305,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -15336,9 +15324,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -15352,7 +15338,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -15385,7 +15371,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -15418,7 +15404,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -15451,7 +15437,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -15484,7 +15470,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -15517,7 +15503,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -15550,7 +15536,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -15583,7 +15569,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -15616,7 +15602,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -15649,7 +15635,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -15682,7 +15668,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -15715,7 +15701,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -15748,7 +15734,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -15781,7 +15767,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -15814,7 +15800,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -15884,9 +15870,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15899,19 +15885,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15944,7 +15930,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15985,7 +15971,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16018,7 +16004,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -16101,7 +16087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -16112,7 +16098,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -16136,7 +16124,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -16171,7 +16159,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -16206,7 +16194,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -16241,7 +16229,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -16276,7 +16264,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -16309,7 +16297,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -16342,7 +16330,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -16375,7 +16363,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -16408,7 +16396,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -16441,7 +16429,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -16474,7 +16462,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -16507,7 +16495,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -16540,7 +16528,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -16573,7 +16561,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -16606,7 +16594,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -16639,7 +16627,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -16672,7 +16660,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -16705,7 +16693,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -16738,7 +16726,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -16771,7 +16759,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -16804,7 +16792,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -16837,7 +16825,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -16870,7 +16858,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -16903,7 +16891,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -16973,9 +16961,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16988,19 +16976,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17033,7 +17021,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -17074,7 +17062,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17107,7 +17095,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -17190,7 +17178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -17225,7 +17213,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -17260,7 +17248,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -17295,7 +17283,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -17330,7 +17318,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -17365,7 +17353,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -17398,7 +17386,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -17431,7 +17419,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -17464,7 +17452,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -17497,7 +17485,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -17530,7 +17518,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -17563,7 +17551,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -17596,7 +17584,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -17629,7 +17617,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -17662,7 +17650,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -17695,7 +17683,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -17728,7 +17716,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -17761,7 +17749,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -17794,7 +17782,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -17827,7 +17815,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -17860,7 +17848,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -17893,7 +17881,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -17926,7 +17914,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -17959,7 +17947,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -17992,7 +17980,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -18062,9 +18050,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18077,19 +18065,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -18122,7 +18110,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -18163,7 +18151,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -18196,7 +18184,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -18279,7 +18267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -18314,7 +18302,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -18349,7 +18337,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -18384,7 +18372,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -18419,7 +18407,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -18454,7 +18442,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -18487,7 +18475,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -18520,7 +18508,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -18553,7 +18541,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -18586,7 +18574,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -18619,7 +18607,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -18652,7 +18640,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -18685,7 +18673,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -18718,7 +18706,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -18751,7 +18739,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -18784,7 +18772,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -18817,7 +18805,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -18850,7 +18838,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -18883,7 +18871,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -18916,7 +18904,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -18949,7 +18937,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -18982,7 +18970,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -19015,7 +19003,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -19048,7 +19036,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -19081,7 +19069,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -19151,9 +19139,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19166,19 +19154,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="E1" s="2" t="n">
         <v>43374</v>
       </c>
@@ -19207,7 +19195,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
@@ -19244,7 +19232,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
@@ -19273,7 +19261,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -19356,7 +19344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -19391,7 +19379,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -19426,7 +19414,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -19461,7 +19449,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -19496,7 +19484,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -19531,7 +19519,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -19564,7 +19552,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -19597,7 +19585,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -19630,7 +19618,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -19663,7 +19651,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -19696,7 +19684,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -19729,7 +19717,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -19762,7 +19750,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -19795,7 +19783,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -19828,7 +19816,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -19861,7 +19849,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -19894,7 +19882,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -19927,7 +19915,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -19960,7 +19948,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -19993,7 +19981,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -20026,7 +20014,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -20059,7 +20047,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -20092,7 +20080,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -20125,7 +20113,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -20158,7 +20146,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -20227,9 +20215,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -20242,19 +20230,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD1" activeCellId="0" pane="topLeft" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20287,7 +20275,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -20328,7 +20316,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -20361,7 +20349,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -20444,7 +20432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -20479,7 +20467,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
@@ -20514,7 +20502,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
@@ -20549,7 +20537,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
@@ -20584,7 +20572,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
@@ -20619,7 +20607,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -20652,7 +20640,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
@@ -20685,7 +20673,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
@@ -20718,7 +20706,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
@@ -20751,7 +20739,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
@@ -20784,7 +20772,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
@@ -20817,7 +20805,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
@@ -20850,7 +20838,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
@@ -20883,7 +20871,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
@@ -20916,7 +20904,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
@@ -20949,7 +20937,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
@@ -20982,7 +20970,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
@@ -21015,7 +21003,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
@@ -21048,7 +21036,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
@@ -21081,7 +21069,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
@@ -21114,7 +21102,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
@@ -21147,7 +21135,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
@@ -21180,7 +21168,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
@@ -21213,7 +21201,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
@@ -21246,7 +21234,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
@@ -21316,9 +21304,9 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -21331,19 +21319,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD4" activeCellId="0" sqref="AD4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="AD4" activeCellId="0" pane="topLeft" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.50510204081633"/>
+    <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="E1" s="2" t="n">
         <v>43101</v>
       </c>
@@ -21372,7 +21360,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
@@ -21409,7 +21397,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
@@ -21438,7 +21426,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -21471,7 +21459,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -21512,7 +21500,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -21545,7 +21533,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -21628,7 +21616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>1</v>
       </c>
@@ -21663,7 +21651,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>2</v>
       </c>
@@ -21698,7 +21686,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
         <v>3</v>
       </c>
@@ -21733,7 +21721,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
         <v>4</v>
       </c>
@@ -21768,7 +21756,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
         <v>5</v>
       </c>
@@ -21803,7 +21791,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
         <v>6</v>
       </c>
@@ -21836,7 +21824,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
         <v>7</v>
       </c>
@@ -21869,7 +21857,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
         <v>8</v>
       </c>
@@ -21902,7 +21890,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
         <v>9</v>
       </c>
@@ -21935,7 +21923,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
         <v>10</v>
       </c>
@@ -21968,7 +21956,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
         <v>11</v>
       </c>
@@ -22001,7 +21989,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
         <v>12</v>
       </c>
@@ -22034,7 +22022,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
         <v>13</v>
       </c>
@@ -22067,7 +22055,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
         <v>14</v>
       </c>
@@ -22100,7 +22088,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
         <v>15</v>
       </c>
@@ -22133,7 +22121,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
         <v>16</v>
       </c>
@@ -22166,7 +22154,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4" t="n">
         <v>17</v>
       </c>
@@ -22199,7 +22187,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4" t="n">
         <v>18</v>
       </c>
@@ -22232,7 +22220,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4" t="n">
         <v>19</v>
       </c>
@@ -22265,7 +22253,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4" t="n">
         <v>20</v>
       </c>
@@ -22298,7 +22286,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4" t="n">
         <v>21</v>
       </c>
@@ -22331,7 +22319,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
         <v>22</v>
       </c>
@@ -22364,7 +22352,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="4" t="n">
         <v>23</v>
       </c>
@@ -22397,7 +22385,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="4" t="n">
         <v>24</v>
       </c>
@@ -22430,7 +22418,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="4" t="n">
         <v>25</v>
       </c>
@@ -22507,9 +22495,9 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/workbook/workbook.xlsx
+++ b/workbook/workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" r:id="rId2" sheetId="1" state="visible"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="39">
   <si>
     <t>Monday</t>
   </si>
@@ -73,9 +73,6 @@
     <t>CB</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>S5</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>S1</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>I.D.</t>
@@ -282,14 +282,14 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="R8" activeCellId="0" pane="topLeft" sqref="R8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="F5" activeCellId="0" pane="topLeft" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -490,7 +490,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
@@ -499,19 +499,15 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -519,13 +515,11 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -542,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -574,12 +568,12 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -590,19 +584,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -617,21 +607,19 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -650,20 +638,18 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -682,9 +668,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -1458,7 +1442,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1661,7 +1645,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1693,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1728,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1763,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1798,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2549,7 +2533,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -2782,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2817,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2852,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2887,7 +2871,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3638,7 +3622,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -3871,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3906,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3941,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3976,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4727,7 +4711,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -4960,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4995,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5030,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5065,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5816,7 +5800,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -6049,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6084,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6119,7 +6103,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6154,7 +6138,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6905,7 +6889,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -7138,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7173,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -7208,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7243,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -7994,7 +7978,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -8227,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8262,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8297,7 +8281,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8332,7 +8316,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9083,7 +9067,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -9316,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9351,7 +9335,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -9386,7 +9370,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9421,7 +9405,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -10172,7 +10156,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -10405,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10440,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10475,7 +10459,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10510,7 +10494,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11261,7 +11245,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -11494,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -11529,7 +11513,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -11564,7 +11548,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11599,7 +11583,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12343,14 +12327,14 @@
   </sheetPr>
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="AC9" activeCellId="0" pane="topLeft" sqref="AC9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="F5" activeCellId="0" pane="topLeft" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -12554,7 +12538,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -12562,7 +12546,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -12587,7 +12571,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -12607,7 +12591,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -12624,7 +12608,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12659,7 +12643,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12670,10 +12654,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -12698,7 +12682,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -13449,7 +13433,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -13682,7 +13666,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -13717,7 +13701,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -13752,7 +13736,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -13787,7 +13771,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -14532,18 +14516,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="2" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="9.98979591836735" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -14597,7 +14581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>28</v>
@@ -14620,7 +14604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>29</v>
@@ -14643,7 +14627,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>30</v>
@@ -14666,7 +14650,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>31</v>
@@ -14708,7 +14692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -14728,19 +14712,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="Y2" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -14749,7 +14733,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>35</v>
@@ -14767,7 +14751,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>38</v>
@@ -14805,7 +14789,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -15038,7 +15022,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -15073,7 +15057,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -15108,7 +15092,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -15143,7 +15127,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -15894,7 +15878,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -16129,7 +16113,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -16164,7 +16148,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -16199,7 +16183,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -16234,7 +16218,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -16985,7 +16969,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -17218,7 +17202,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -17253,7 +17237,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -17288,7 +17272,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -17323,7 +17307,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -18074,7 +18058,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -18307,7 +18291,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -18342,7 +18326,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -18377,7 +18361,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -18412,7 +18396,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -19163,7 +19147,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -19384,7 +19368,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -19419,7 +19403,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -19454,7 +19438,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -19489,7 +19473,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -20239,7 +20223,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -20472,7 +20456,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -20507,7 +20491,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -20542,7 +20526,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -20577,7 +20561,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -21328,7 +21312,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" hidden="false" style="0" width="3.51020408163265" collapsed="true"/>
-    <col min="30" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="30" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -21656,7 +21640,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -21691,7 +21675,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -21726,7 +21710,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -21761,7 +21745,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
